--- a/pack/OutputFile/outputSheet.xlsx
+++ b/pack/OutputFile/outputSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="9" windowHeight="4020" windowWidth="14835" xWindow="0" yWindow="2520"/>
+    <workbookView windowHeight="4020" windowWidth="14835" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestdata" r:id="rId1" sheetId="1"/>
@@ -41,13 +41,14 @@
     <sheet name="Selfservice_Timecard" r:id="rId32" sheetId="32"/>
     <sheet name="Timecard_submitpastdata" r:id="rId33" sheetId="33"/>
     <sheet name="Timecard_viewpastreports" r:id="rId34" sheetId="34"/>
+    <sheet name="TimeSheet_Approved Time Sheet" r:id="rId35" sheetId="35"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7772" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7868" uniqueCount="1467">
   <si>
     <t>Description</t>
   </si>
@@ -4456,6 +4457,18 @@
     <t>Vk</t>
   </si>
   <si>
+    <t>TimeSheet_Approved Time Sheet</t>
+  </si>
+  <si>
+    <t>TC_34</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>NotExecuted</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
 </sst>
@@ -4464,7 +4477,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="87">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4627,6 +4640,378 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="10"/>
       <b val="true"/>
     </font>
@@ -4673,7 +5058,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="108">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
@@ -4724,6 +5109,68 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -5019,10 +5466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5059,7 +5506,9 @@
       <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" t="s" s="51">
+        <v>1464</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -5071,6 +5520,9 @@
       <c r="C3" t="s">
         <v>628</v>
       </c>
+      <c r="D3" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -5082,6 +5534,9 @@
       <c r="C4" t="s">
         <v>628</v>
       </c>
+      <c r="D4" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -5093,6 +5548,9 @@
       <c r="C5" t="s">
         <v>627</v>
       </c>
+      <c r="D5" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -5104,6 +5562,9 @@
       <c r="C6" t="s">
         <v>627</v>
       </c>
+      <c r="D6" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -5115,6 +5576,9 @@
       <c r="C7" t="s">
         <v>627</v>
       </c>
+      <c r="D7" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -5126,6 +5590,9 @@
       <c r="C8" t="s">
         <v>627</v>
       </c>
+      <c r="D8" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -5137,6 +5604,9 @@
       <c r="C9" t="s">
         <v>627</v>
       </c>
+      <c r="D9" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -5148,6 +5618,9 @@
       <c r="C10" t="s">
         <v>627</v>
       </c>
+      <c r="D10" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -5159,6 +5632,9 @@
       <c r="C11" t="s">
         <v>627</v>
       </c>
+      <c r="D11" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -5170,6 +5646,9 @@
       <c r="C12" t="s">
         <v>627</v>
       </c>
+      <c r="D12" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -5181,6 +5660,9 @@
       <c r="C13" t="s">
         <v>1455</v>
       </c>
+      <c r="D13" t="s" s="106">
+        <v>1466</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -5192,6 +5674,9 @@
       <c r="C14" t="s">
         <v>627</v>
       </c>
+      <c r="D14" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -5203,6 +5688,9 @@
       <c r="C15" t="s">
         <v>627</v>
       </c>
+      <c r="D15" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -5214,6 +5702,9 @@
       <c r="C16" t="s">
         <v>627</v>
       </c>
+      <c r="D16" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
@@ -5225,6 +5716,9 @@
       <c r="C17" t="s">
         <v>627</v>
       </c>
+      <c r="D17" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
@@ -5236,6 +5730,9 @@
       <c r="C18" t="s">
         <v>627</v>
       </c>
+      <c r="D18" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
@@ -5247,6 +5744,9 @@
       <c r="C19" t="s">
         <v>627</v>
       </c>
+      <c r="D19" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
@@ -5258,6 +5758,9 @@
       <c r="C20" t="s">
         <v>627</v>
       </c>
+      <c r="D20" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
@@ -5269,6 +5772,9 @@
       <c r="C21" t="s">
         <v>627</v>
       </c>
+      <c r="D21" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
@@ -5280,6 +5786,9 @@
       <c r="C22" t="s">
         <v>627</v>
       </c>
+      <c r="D22" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
@@ -5291,6 +5800,9 @@
       <c r="C23" t="s">
         <v>627</v>
       </c>
+      <c r="D23" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
@@ -5302,6 +5814,9 @@
       <c r="C24" t="s">
         <v>627</v>
       </c>
+      <c r="D24" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
@@ -5313,6 +5828,9 @@
       <c r="C25" t="s">
         <v>627</v>
       </c>
+      <c r="D25" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
@@ -5324,6 +5842,9 @@
       <c r="C26" t="s">
         <v>627</v>
       </c>
+      <c r="D26" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
@@ -5335,6 +5856,9 @@
       <c r="C27" t="s">
         <v>627</v>
       </c>
+      <c r="D27" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
@@ -5346,6 +5870,9 @@
       <c r="C28" t="s">
         <v>627</v>
       </c>
+      <c r="D28" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
@@ -5357,6 +5884,9 @@
       <c r="C29" t="s">
         <v>627</v>
       </c>
+      <c r="D29" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
@@ -5368,6 +5898,9 @@
       <c r="C30" t="s">
         <v>627</v>
       </c>
+      <c r="D30" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row customFormat="1" r="31" s="34" spans="1:4">
       <c r="A31" s="34" t="s">
@@ -5379,7 +5912,9 @@
       <c r="C31" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
@@ -5391,6 +5926,9 @@
       <c r="C32" t="s">
         <v>627</v>
       </c>
+      <c r="D32" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
@@ -5402,6 +5940,9 @@
       <c r="C33" t="s">
         <v>627</v>
       </c>
+      <c r="D33" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
@@ -5412,6 +5953,23 @@
       </c>
       <c r="C34" t="s">
         <v>627</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s" s="107">
+        <v>1466</v>
       </c>
     </row>
   </sheetData>
@@ -6309,7 +6867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
       <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>
     </sheetView>
@@ -6359,7 +6917,9 @@
       <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" t="s" s="52">
+        <v>1464</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="3" s="11" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -6377,7 +6937,9 @@
       <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="43"/>
+      <c r="F3" t="s" s="53">
+        <v>1464</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="4" s="11" spans="1:6">
       <c r="A4" s="11" t="s">
@@ -6395,7 +6957,9 @@
       <c r="E4" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" t="s" s="54">
+        <v>1464</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="5" s="11" spans="1:6">
       <c r="A5" s="11" t="s">
@@ -6413,7 +6977,9 @@
       <c r="E5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" t="s" s="55">
+        <v>1464</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="6" s="11" spans="1:6">
       <c r="A6" s="11" t="s">
@@ -6431,7 +6997,9 @@
       <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" t="s" s="56">
+        <v>1464</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="7" s="11" spans="1:6">
       <c r="A7" s="11" t="s">
@@ -6449,7 +7017,9 @@
       <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" t="s" s="57">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="8" spans="1:6">
       <c r="A8" s="11" t="s">
@@ -6467,7 +7037,9 @@
       <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" t="s" s="58">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="9" spans="1:6">
       <c r="A9" s="11" t="s">
@@ -6485,7 +7057,9 @@
       <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" t="s" s="59">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="10" spans="1:6">
       <c r="A10" s="11" t="s">
@@ -6503,7 +7077,9 @@
       <c r="E10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" t="s" s="60">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="11" spans="1:6">
       <c r="A11" s="11" t="s">
@@ -6521,7 +7097,9 @@
       <c r="E11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" t="s" s="61">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="12" spans="1:6">
       <c r="A12" s="11" t="s">
@@ -6539,7 +7117,9 @@
       <c r="E12" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" t="s" s="62">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="13" spans="1:6">
       <c r="A13" s="11" t="s">
@@ -6557,7 +7137,9 @@
       <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" t="s" s="63">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="14" spans="1:6">
       <c r="A14" s="11" t="s">
@@ -6575,7 +7157,9 @@
       <c r="E14" s="11" t="s">
         <v>1460</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" t="s" s="64">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="15" spans="1:6">
       <c r="A15" s="11" t="s">
@@ -6593,7 +7177,9 @@
       <c r="E15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" t="s" s="65">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="16" spans="1:6">
       <c r="A16" s="11" t="s">
@@ -6611,7 +7197,9 @@
       <c r="E16" s="11" t="s">
         <v>1461</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" t="s" s="66">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="17" spans="1:6">
       <c r="A17" s="11" t="s">
@@ -6629,7 +7217,9 @@
       <c r="E17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" t="s" s="67">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="18" spans="1:6">
       <c r="A18" s="11" t="s">
@@ -6647,7 +7237,9 @@
       <c r="E18" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" t="s" s="68">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="19" spans="1:6">
       <c r="A19" s="11" t="s">
@@ -6665,7 +7257,9 @@
       <c r="E19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" t="s" s="69">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="20" spans="1:6">
       <c r="A20" s="11" t="s">
@@ -6683,7 +7277,9 @@
       <c r="E20" s="11" t="s">
         <v>1291</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" t="s" s="70">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="21" spans="1:6">
       <c r="A21" s="11" t="s">
@@ -6701,7 +7297,9 @@
       <c r="E21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" t="s" s="71">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="22" spans="1:6">
       <c r="A22" s="11" t="s">
@@ -6719,7 +7317,9 @@
       <c r="E22" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" t="s" s="72">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="23" spans="1:6">
       <c r="A23" s="11" t="s">
@@ -6737,7 +7337,9 @@
       <c r="E23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" t="s" s="73">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="24" spans="1:6">
       <c r="A24" s="11" t="s">
@@ -6755,7 +7357,9 @@
       <c r="E24" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" t="s" s="74">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="25" spans="1:6">
       <c r="A25" s="11" t="s">
@@ -6773,7 +7377,9 @@
       <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="F25" t="s" s="75">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="26" spans="1:6">
       <c r="A26" s="11" t="s">
@@ -6791,7 +7397,9 @@
       <c r="E26" s="11" t="s">
         <v>1302</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" t="s" s="76">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="27" spans="1:6">
       <c r="A27" s="11" t="s">
@@ -6809,7 +7417,9 @@
       <c r="E27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" t="s" s="77">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="28" spans="1:6">
       <c r="A28" s="11" t="s">
@@ -6827,7 +7437,9 @@
       <c r="E28" s="11" t="s">
         <v>1303</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" t="s" s="78">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="29" spans="1:6">
       <c r="A29" s="11" t="s">
@@ -6845,7 +7457,9 @@
       <c r="E29" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="F29" s="43"/>
+      <c r="F29" t="s" s="79">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="30" spans="1:6">
       <c r="A30" s="11" t="s">
@@ -6863,7 +7477,9 @@
       <c r="E30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" t="s" s="80">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="31" spans="1:6">
       <c r="A31" s="11" t="s">
@@ -6881,7 +7497,9 @@
       <c r="E31" s="39" t="s">
         <v>1304</v>
       </c>
-      <c r="F31" s="43"/>
+      <c r="F31" t="s" s="81">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="32" spans="1:6">
       <c r="A32" s="11" t="s">
@@ -6899,7 +7517,9 @@
       <c r="E32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="43"/>
+      <c r="F32" t="s" s="82">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="33" spans="1:6">
       <c r="A33" s="11" t="s">
@@ -6917,7 +7537,9 @@
       <c r="E33" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="F33" s="43"/>
+      <c r="F33" t="s" s="83">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="34" spans="1:6">
       <c r="A34" s="11" t="s">
@@ -6935,7 +7557,9 @@
       <c r="E34" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="43"/>
+      <c r="F34" t="s" s="84">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="35" spans="1:6">
       <c r="A35" s="11" t="s">
@@ -6953,7 +7577,9 @@
       <c r="E35" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="F35" s="43"/>
+      <c r="F35" t="s" s="85">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="36" spans="1:6">
       <c r="A36" s="11" t="s">
@@ -6971,7 +7597,9 @@
       <c r="E36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" t="s" s="86">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="37" spans="1:6">
       <c r="A37" s="11" t="s">
@@ -6989,7 +7617,9 @@
       <c r="E37" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F37" s="43"/>
+      <c r="F37" t="s" s="87">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="38" spans="1:6">
       <c r="A38" s="11" t="s">
@@ -7007,7 +7637,9 @@
       <c r="E38" s="17" t="s">
         <v>1360</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" t="s" s="88">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="39" spans="1:6">
       <c r="A39" s="11" t="s">
@@ -7025,7 +7657,9 @@
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" t="s" s="89">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="40" spans="1:6">
       <c r="A40" s="11" t="s">
@@ -7043,7 +7677,9 @@
       <c r="E40" s="17" t="s">
         <v>1361</v>
       </c>
-      <c r="F40" s="43"/>
+      <c r="F40" t="s" s="90">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="41" spans="1:6">
       <c r="A41" s="11" t="s">
@@ -7061,7 +7697,9 @@
       <c r="E41" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F41" s="43"/>
+      <c r="F41" t="s" s="91">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="42" spans="1:6">
       <c r="A42" s="11" t="s">
@@ -7079,7 +7717,9 @@
       <c r="E42" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="F42" s="43"/>
+      <c r="F42" t="s" s="92">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="43" spans="1:6">
       <c r="A43" s="11" t="s">
@@ -7097,7 +7737,9 @@
       <c r="E43" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="43"/>
+      <c r="F43" t="s" s="93">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="44" spans="1:6">
       <c r="A44" s="11" t="s">
@@ -7115,7 +7757,9 @@
       <c r="E44" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="F44" s="43"/>
+      <c r="F44" t="s" s="94">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="45" spans="1:6">
       <c r="A45" s="11" t="s">
@@ -7133,7 +7777,9 @@
       <c r="E45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="43"/>
+      <c r="F45" t="s" s="95">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="46" spans="1:6">
       <c r="A46" s="11" t="s">
@@ -7151,7 +7797,9 @@
       <c r="E46" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="F46" s="43"/>
+      <c r="F46" t="s" s="96">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="47" spans="1:6">
       <c r="A47" s="11" t="s">
@@ -7169,7 +7817,9 @@
       <c r="E47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="43"/>
+      <c r="F47" t="s" s="97">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="48" spans="1:6">
       <c r="A48" s="11" t="s">
@@ -7187,7 +7837,9 @@
       <c r="E48" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="F48" s="43"/>
+      <c r="F48" t="s" s="98">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="49" spans="1:6">
       <c r="A49" s="11" t="s">
@@ -7205,7 +7857,9 @@
       <c r="E49" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="43"/>
+      <c r="F49" t="s" s="99">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="50" spans="1:6">
       <c r="A50" s="11" t="s">
@@ -7223,7 +7877,9 @@
       <c r="E50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="43"/>
+      <c r="F50" t="s" s="100">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="51" spans="1:6">
       <c r="A51" s="11" t="s">
@@ -7241,7 +7897,9 @@
       <c r="E51" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="43"/>
+      <c r="F51" t="s" s="101">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="52" spans="1:6">
       <c r="A52" s="11" t="s">
@@ -7259,7 +7917,9 @@
       <c r="E52" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="43"/>
+      <c r="F52" t="s" s="102">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="53" spans="1:6">
       <c r="A53" s="11" t="s">
@@ -7277,7 +7937,9 @@
       <c r="E53" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="F53" s="43"/>
+      <c r="F53" t="s" s="103">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="54" spans="1:6">
       <c r="A54" s="11" t="s">
@@ -7295,7 +7957,9 @@
       <c r="E54" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="43"/>
+      <c r="F54" t="s" s="104">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="55" spans="1:6">
       <c r="A55" s="11" t="s">
@@ -7313,7 +7977,9 @@
       <c r="E55" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F55" s="43"/>
+      <c r="F55" t="s" s="105">
+        <v>1466</v>
+      </c>
     </row>
     <row ht="18.75" r="56" spans="1:6">
       <c r="A56" s="11" t="s">
@@ -21471,7 +22137,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s" s="45">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -21490,7 +22156,9 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" t="s" s="46">
+        <v>1464</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -21508,7 +22176,9 @@
       <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" t="s" s="47">
+        <v>1464</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -21526,7 +22196,9 @@
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" t="s" s="48">
+        <v>1464</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -21544,7 +22216,9 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" t="s" s="49">
+        <v>1464</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -21562,7 +22236,9 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" t="s" s="50">
+        <v>1464</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -29578,6 +30254,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G51"/>

--- a/pack/OutputFile/outputSheet.xlsx
+++ b/pack/OutputFile/outputSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="4020" windowWidth="14835" xWindow="0" yWindow="2520"/>
+    <workbookView activeTab="12" firstSheet="11" windowHeight="4020" windowWidth="14835" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestdata" r:id="rId1" sheetId="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7868" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7893" uniqueCount="1467">
   <si>
     <t>Description</t>
   </si>
@@ -4451,16 +4451,16 @@
     <t>wait for salary link</t>
   </si>
   <si>
-    <t>Priyanka</t>
-  </si>
-  <si>
-    <t>Vk</t>
-  </si>
-  <si>
     <t>TimeSheet_Approved Time Sheet</t>
   </si>
   <si>
     <t>TC_34</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Manasa</t>
   </si>
   <si>
     <t>Pass</t>
@@ -4477,7 +4477,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="87">
+  <fonts count="107">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5000,6 +5000,126 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="10"/>
       <b val="true"/>
     </font>
@@ -5058,7 +5178,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
@@ -5171,6 +5291,26 @@
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -5468,8 +5608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5660,7 +5800,7 @@
       <c r="C13" t="s">
         <v>1455</v>
       </c>
-      <c r="D13" t="s" s="106">
+      <c r="D13" t="s" s="126">
         <v>1466</v>
       </c>
     </row>
@@ -5960,15 +6100,15 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B35" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
       </c>
-      <c r="D35" t="s" s="107">
+      <c r="D35" t="s" s="127">
         <v>1466</v>
       </c>
     </row>
@@ -6865,11 +7005,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
-      <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A11" ySplit="1"/>
+      <selection activeCell="E14" pane="bottomLeft" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7155,7 +7295,7 @@
         <v>272</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="F14" t="s" s="64">
         <v>1464</v>
@@ -7195,7 +7335,7 @@
         <v>275</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F16" t="s" s="66">
         <v>1464</v>
@@ -7978,7 +8118,7 @@
         <v>332</v>
       </c>
       <c r="F55" t="s" s="105">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row ht="18.75" r="56" spans="1:6">
@@ -7997,7 +8137,9 @@
       <c r="E56" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="43"/>
+      <c r="F56" t="s" s="106">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="57" spans="1:6">
       <c r="A57" s="11" t="s">
@@ -8015,7 +8157,9 @@
       <c r="E57" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="F57" s="43"/>
+      <c r="F57" t="s" s="107">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="58" spans="1:6">
       <c r="A58" s="11" t="s">
@@ -8033,7 +8177,9 @@
       <c r="E58" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="43"/>
+      <c r="F58" t="s" s="108">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="59" spans="1:6">
       <c r="A59" s="11" t="s">
@@ -8051,7 +8197,9 @@
       <c r="E59" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="F59" s="43"/>
+      <c r="F59" t="s" s="109">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="60" spans="1:6">
       <c r="A60" s="11" t="s">
@@ -8069,7 +8217,9 @@
       <c r="E60" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="43"/>
+      <c r="F60" t="s" s="110">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="61" spans="1:6">
       <c r="A61" s="11" t="s">
@@ -8087,7 +8237,9 @@
       <c r="E61" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="F61" s="43"/>
+      <c r="F61" t="s" s="111">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="62" spans="1:6">
       <c r="A62" s="11" t="s">
@@ -8105,7 +8257,9 @@
       <c r="E62" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="43"/>
+      <c r="F62" t="s" s="112">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="63" spans="1:6">
       <c r="A63" s="11" t="s">
@@ -8123,7 +8277,9 @@
       <c r="E63" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="43"/>
+      <c r="F63" t="s" s="113">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="64" spans="1:6">
       <c r="A64" s="11" t="s">
@@ -8141,7 +8297,9 @@
       <c r="E64" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="43"/>
+      <c r="F64" t="s" s="114">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="65" spans="1:6">
       <c r="A65" s="11" t="s">
@@ -8159,7 +8317,9 @@
       <c r="E65" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="43"/>
+      <c r="F65" t="s" s="115">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="66" spans="1:6">
       <c r="A66" s="11" t="s">
@@ -8177,68 +8337,76 @@
       <c r="E66" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="43"/>
+      <c r="F66" t="s" s="116">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="67" spans="1:6">
       <c r="A67" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s" s="117">
+        <v>1464</v>
+      </c>
+    </row>
+    <row ht="18.75" r="68" spans="1:6">
+      <c r="A68" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B68" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
         <v>462</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="43"/>
-    </row>
-    <row ht="18.75" r="68" spans="1:6">
-      <c r="A68" s="19" t="s">
+      <c r="E68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s" s="118">
+        <v>1464</v>
+      </c>
+    </row>
+    <row ht="18.75" r="69" spans="1:6">
+      <c r="A69" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="B69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="43"/>
-    </row>
-    <row customFormat="1" ht="18.75" r="69" s="25" spans="1:6">
-      <c r="A69" s="23" t="s">
-        <v>588</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="43"/>
+      <c r="E69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s" s="119">
+        <v>1464</v>
+      </c>
     </row>
     <row customFormat="1" ht="18.75" r="70" s="25" spans="1:6">
       <c r="A70" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>24</v>
@@ -8249,50 +8417,56 @@
       <c r="E70" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="43"/>
+      <c r="F70" t="s" s="120">
+        <v>1464</v>
+      </c>
     </row>
     <row customFormat="1" ht="18.75" r="71" s="25" spans="1:6">
       <c r="A71" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s" s="121">
+        <v>1464</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="18.75" r="72" s="25" spans="1:6">
+      <c r="A72" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B72" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="43"/>
-    </row>
-    <row ht="18.75" r="72" spans="1:6">
-      <c r="A72" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="43"/>
+      <c r="C72" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s" s="122">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="73" spans="1:6">
       <c r="A73" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>24</v>
@@ -8303,25 +8477,29 @@
       <c r="E73" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="43"/>
+      <c r="F73" t="s" s="123">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="74" spans="1:6">
       <c r="A74" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="24" t="s">
-        <v>595</v>
+      <c r="D74" t="s">
+        <v>1388</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="43"/>
+      <c r="F74" t="s" s="124">
+        <v>1464</v>
+      </c>
     </row>
     <row ht="18.75" r="75" spans="1:6">
       <c r="A75" s="11" t="s">
@@ -8339,13 +8517,16 @@
       <c r="E75" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="F75" t="s" s="125">
+        <v>1466</v>
+      </c>
     </row>
     <row ht="18.75" r="76" spans="1:6">
       <c r="A76" s="11" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>24</v>
@@ -8359,50 +8540,50 @@
     </row>
     <row ht="18.75" r="77" spans="1:6">
       <c r="A77" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="78" spans="1:6">
+      <c r="A78" s="11" t="s">
         <v>1459</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="11" t="s">
+      <c r="B78" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E77" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="78" spans="1:6">
-      <c r="A78" s="19" t="s">
+      <c r="E78" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="79" spans="1:6">
+      <c r="A79" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="B79" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
         <v>349</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="79" spans="1:6">
-      <c r="A79" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" t="s">
-        <v>351</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>25</v>
@@ -8410,10 +8591,10 @@
     </row>
     <row ht="18.75" r="80" spans="1:6">
       <c r="A80" s="11" t="s">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>24</v>
@@ -8422,32 +8603,32 @@
         <v>351</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>1389</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="81" spans="1:5">
       <c r="A81" s="11" t="s">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>25</v>
+        <v>1389</v>
       </c>
     </row>
     <row ht="18.75" r="82" spans="1:5">
       <c r="A82" s="11" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>24</v>
@@ -8455,33 +8636,33 @@
       <c r="D82" t="s">
         <v>353</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>354</v>
+      <c r="E82" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="83" spans="1:5">
       <c r="A83" s="11" t="s">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>356</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>25</v>
+        <v>353</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row ht="18.75" r="84" spans="1:5">
       <c r="A84" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>24</v>
@@ -8490,32 +8671,32 @@
         <v>356</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>1182</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="85" spans="1:5">
       <c r="A85" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>25</v>
+        <v>1182</v>
       </c>
     </row>
     <row ht="18.75" r="86" spans="1:5">
       <c r="A86" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>24</v>
@@ -8524,32 +8705,32 @@
         <v>359</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>1390</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="87" spans="1:5">
       <c r="A87" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>25</v>
+        <v>1390</v>
       </c>
     </row>
     <row ht="18.75" r="88" spans="1:5">
       <c r="A88" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>24</v>
@@ -8557,39 +8738,39 @@
       <c r="D88" t="s">
         <v>362</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>364</v>
+      <c r="E88" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="89" spans="1:5">
       <c r="A89" s="11" t="s">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>365</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>25</v>
+        <v>362</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row ht="18.75" r="90" spans="1:5">
       <c r="A90" s="11" t="s">
-        <v>584</v>
+        <v>207</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>586</v>
+      <c r="D90" t="s">
+        <v>365</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>25</v>
@@ -8597,10 +8778,10 @@
     </row>
     <row ht="18.75" r="91" spans="1:5">
       <c r="A91" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>24</v>
@@ -8614,50 +8795,50 @@
     </row>
     <row ht="18.75" r="92" spans="1:5">
       <c r="A92" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="93" spans="1:5">
+      <c r="A93" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B93" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="93" spans="1:5">
-      <c r="A93" s="19" t="s">
+      <c r="C93" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="94" spans="1:5">
+      <c r="A94" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="B94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
         <v>367</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="94" spans="1:5">
-      <c r="A94" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" t="s">
-        <v>369</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>25</v>
@@ -8665,10 +8846,10 @@
     </row>
     <row ht="18.75" r="95" spans="1:5">
       <c r="A95" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>24</v>
@@ -8677,32 +8858,32 @@
         <v>369</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>371</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="96" spans="1:5">
       <c r="A96" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>25</v>
+        <v>371</v>
       </c>
     </row>
     <row ht="18.75" r="97" spans="1:5">
       <c r="A97" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>24</v>
@@ -8711,66 +8892,66 @@
         <v>373</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>1126</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="98" spans="1:5">
       <c r="A98" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>469</v>
+      <c r="D98" t="s">
+        <v>373</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>25</v>
+        <v>1126</v>
       </c>
     </row>
     <row ht="18.75" r="99" spans="1:5">
       <c r="A99" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="11" t="s">
         <v>469</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>470</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="100" spans="1:5">
       <c r="A100" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>25</v>
+        <v>470</v>
       </c>
     </row>
     <row ht="18.75" r="101" spans="1:5">
       <c r="A101" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>24</v>
@@ -8779,32 +8960,32 @@
         <v>471</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>418</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="102" spans="1:5">
       <c r="A102" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>380</v>
+        <v>471</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>25</v>
+        <v>418</v>
       </c>
     </row>
     <row ht="18.75" r="103" spans="1:5">
       <c r="A103" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>24</v>
@@ -8812,33 +8993,33 @@
       <c r="D103" t="s">
         <v>380</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>1391</v>
+      <c r="E103" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="104" spans="1:5">
       <c r="A104" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>384</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>25</v>
+        <v>380</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row ht="18.75" r="105" spans="1:5">
       <c r="A105" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>24</v>
@@ -8847,32 +9028,32 @@
         <v>384</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>472</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="106" spans="1:5">
       <c r="A106" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>25</v>
+        <v>472</v>
       </c>
     </row>
     <row ht="18.75" r="107" spans="1:5">
       <c r="A107" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>24</v>
@@ -8880,33 +9061,33 @@
       <c r="D107" t="s">
         <v>387</v>
       </c>
-      <c r="E107" s="14" t="s">
-        <v>389</v>
+      <c r="E107" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="108" spans="1:5">
       <c r="A108" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>391</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>25</v>
+        <v>387</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row ht="18.75" r="109" spans="1:5">
       <c r="A109" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>24</v>
@@ -8915,32 +9096,32 @@
         <v>391</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>393</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="110" spans="1:5">
       <c r="A110" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>25</v>
+        <v>393</v>
       </c>
     </row>
     <row ht="18.75" r="111" spans="1:5">
       <c r="A111" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>24</v>
@@ -8948,33 +9129,33 @@
       <c r="D111" t="s">
         <v>395</v>
       </c>
-      <c r="E111" s="14" t="s">
-        <v>397</v>
+      <c r="E111" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="112" spans="1:5">
       <c r="A112" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>399</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>25</v>
+        <v>395</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row ht="18.75" r="113" spans="1:5">
       <c r="A113" s="11" t="s">
-        <v>161</v>
+        <v>398</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>24</v>
@@ -8982,33 +9163,33 @@
       <c r="D113" t="s">
         <v>399</v>
       </c>
-      <c r="E113" s="14" t="s">
-        <v>400</v>
+      <c r="E113" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="114" spans="1:5">
       <c r="A114" s="11" t="s">
-        <v>401</v>
+        <v>161</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>402</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>25</v>
+        <v>399</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row ht="18.75" r="115" spans="1:5">
       <c r="A115" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>24</v>
@@ -9016,50 +9197,50 @@
       <c r="D115" t="s">
         <v>402</v>
       </c>
-      <c r="E115" s="14" t="s">
-        <v>404</v>
+      <c r="E115" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="116" spans="1:5">
       <c r="A116" s="11" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>611</v>
+        <v>404</v>
       </c>
     </row>
     <row ht="18.75" r="117" spans="1:5">
       <c r="A117" s="11" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>25</v>
+      <c r="D117" t="s">
+        <v>405</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>611</v>
       </c>
     </row>
     <row ht="18.75" r="118" spans="1:5">
       <c r="A118" s="11" t="s">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>24</v>
@@ -9073,16 +9254,16 @@
     </row>
     <row ht="18.75" r="119" spans="1:5">
       <c r="A119" s="11" t="s">
-        <v>584</v>
+        <v>207</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D119" t="s">
-        <v>586</v>
+      <c r="D119" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>25</v>
@@ -9090,10 +9271,10 @@
     </row>
     <row ht="18.75" r="120" spans="1:5">
       <c r="A120" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>24</v>
@@ -9107,49 +9288,49 @@
     </row>
     <row ht="18.75" r="121" spans="1:5">
       <c r="A121" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>586</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="122" spans="1:5">
+      <c r="A122" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B122" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="122" spans="1:5">
-      <c r="A122" s="19" t="s">
+      <c r="C122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="123" spans="1:5">
+      <c r="A123" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="123" spans="1:5">
-      <c r="A123" s="11" t="s">
-        <v>406</v>
-      </c>
       <c r="B123" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="11" t="s">
         <v>475</v>
       </c>
       <c r="E123" s="11" t="s">
@@ -9158,16 +9339,16 @@
     </row>
     <row ht="18.75" r="124" spans="1:5">
       <c r="A124" s="11" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D124" s="11" t="s">
-        <v>413</v>
+      <c r="D124" t="s">
+        <v>475</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>25</v>
@@ -9175,44 +9356,44 @@
     </row>
     <row ht="18.75" r="125" spans="1:5">
       <c r="A125" s="11" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>293</v>
+      <c r="E125" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="126" spans="1:5">
       <c r="A126" s="11" t="s">
-        <v>122</v>
+        <v>412</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>612</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>25</v>
+        <v>413</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row ht="18.75" r="127" spans="1:5">
       <c r="A127" s="11" t="s">
-        <v>414</v>
+        <v>122</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>24</v>
@@ -9221,32 +9402,32 @@
         <v>612</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>415</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="128" spans="1:5">
       <c r="A128" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>417</v>
+        <v>612</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>25</v>
+        <v>415</v>
       </c>
     </row>
     <row ht="18.75" r="129" spans="1:5">
       <c r="A129" s="11" t="s">
-        <v>58</v>
+        <v>416</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>24</v>
@@ -9254,33 +9435,33 @@
       <c r="D129" t="s">
         <v>417</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>418</v>
+      <c r="E129" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="130" spans="1:5">
       <c r="A130" s="11" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>476</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>25</v>
+        <v>417</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row ht="18.75" r="131" spans="1:5">
       <c r="A131" s="11" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>24</v>
@@ -9288,33 +9469,33 @@
       <c r="D131" t="s">
         <v>476</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>477</v>
+      <c r="E131" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="132" spans="1:5">
       <c r="A132" s="11" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>419</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>25</v>
+        <v>476</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row ht="18.75" r="133" spans="1:5">
       <c r="A133" s="11" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>24</v>
@@ -9322,33 +9503,33 @@
       <c r="D133" t="s">
         <v>419</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>415</v>
+      <c r="E133" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="134" spans="1:5">
       <c r="A134" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>422</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>25</v>
+        <v>419</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row ht="18.75" r="135" spans="1:5">
       <c r="A135" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>24</v>
@@ -9356,33 +9537,33 @@
       <c r="D135" t="s">
         <v>422</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>424</v>
+      <c r="E135" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="136" spans="1:5">
       <c r="A136" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>426</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>25</v>
+        <v>422</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>424</v>
       </c>
     </row>
     <row ht="18.75" r="137" spans="1:5">
       <c r="A137" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>24</v>
@@ -9391,32 +9572,32 @@
         <v>426</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>428</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="138" spans="1:5">
       <c r="A138" s="11" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>25</v>
+        <v>428</v>
       </c>
     </row>
     <row ht="18.75" r="139" spans="1:5">
       <c r="A139" s="11" t="s">
-        <v>58</v>
+        <v>416</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>24</v>
@@ -9424,33 +9605,33 @@
       <c r="D139" t="s">
         <v>429</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="140" spans="1:5">
+      <c r="A140" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" t="s">
+        <v>429</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row ht="30.75" r="140" spans="1:5">
-      <c r="A140" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row ht="30.75" r="141" spans="1:5">
       <c r="A141" s="11" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>24</v>
@@ -9458,33 +9639,33 @@
       <c r="D141" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="30.75" r="142" spans="1:5">
+      <c r="A142" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row ht="18.75" r="142" spans="1:5">
-      <c r="A142" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" t="s">
-        <v>430</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="143" spans="1:5">
       <c r="A143" s="11" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>24</v>
@@ -9492,33 +9673,33 @@
       <c r="D143" t="s">
         <v>430</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>415</v>
+      <c r="E143" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="144" spans="1:5">
       <c r="A144" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>25</v>
+        <v>430</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row ht="18.75" r="145" spans="1:5">
       <c r="A145" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>24</v>
@@ -9526,33 +9707,33 @@
       <c r="D145" t="s">
         <v>431</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>424</v>
+      <c r="E145" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="146" spans="1:5">
       <c r="A146" s="11" t="s">
-        <v>225</v>
+        <v>423</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>432</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>25</v>
+        <v>431</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>424</v>
       </c>
     </row>
     <row ht="18.75" r="147" spans="1:5">
       <c r="A147" s="11" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>24</v>
@@ -9561,32 +9742,32 @@
         <v>432</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>433</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="148" spans="1:5">
       <c r="A148" s="11" t="s">
-        <v>434</v>
+        <v>42</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>25</v>
+        <v>433</v>
       </c>
     </row>
     <row ht="18.75" r="149" spans="1:5">
       <c r="A149" s="11" t="s">
-        <v>291</v>
+        <v>434</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>24</v>
@@ -9594,33 +9775,33 @@
       <c r="D149" t="s">
         <v>435</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>436</v>
+      <c r="E149" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="150" spans="1:5">
       <c r="A150" s="11" t="s">
-        <v>437</v>
+        <v>291</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>438</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>25</v>
+        <v>435</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row ht="18.75" r="151" spans="1:5">
       <c r="A151" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>24</v>
@@ -9628,33 +9809,33 @@
       <c r="D151" t="s">
         <v>438</v>
       </c>
-      <c r="E151" s="18" t="s">
-        <v>440</v>
+      <c r="E151" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="152" spans="1:5">
       <c r="A152" s="11" t="s">
-        <v>344</v>
+        <v>439</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>596</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>25</v>
+        <v>438</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>440</v>
       </c>
     </row>
     <row ht="18.75" r="153" spans="1:5">
       <c r="A153" s="11" t="s">
-        <v>597</v>
+        <v>344</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>24</v>
@@ -9668,16 +9849,16 @@
     </row>
     <row ht="18.75" r="154" spans="1:5">
       <c r="A154" s="11" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>586</v>
+      <c r="D154" t="s">
+        <v>596</v>
       </c>
       <c r="E154" s="16" t="s">
         <v>25</v>
@@ -9685,10 +9866,10 @@
     </row>
     <row ht="18.75" r="155" spans="1:5">
       <c r="A155" s="11" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>24</v>
@@ -9702,44 +9883,44 @@
     </row>
     <row ht="18.75" r="156" spans="1:5">
       <c r="A156" s="11" t="s">
-        <v>465</v>
+        <v>598</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>466</v>
+        <v>20</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E156" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E156" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="157" spans="1:5">
       <c r="A157" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="158" spans="1:5">
+      <c r="A158" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157" t="s">
-        <v>442</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="158" spans="1:5">
-      <c r="A158" s="19" t="s">
-        <v>443</v>
-      </c>
       <c r="B158" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>24</v>
@@ -9752,17 +9933,17 @@
       </c>
     </row>
     <row ht="18.75" r="159" spans="1:5">
-      <c r="A159" s="11" t="s">
-        <v>441</v>
+      <c r="A159" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E159" s="16" t="s">
         <v>25</v>
@@ -9770,10 +9951,10 @@
     </row>
     <row ht="18.75" r="160" spans="1:5">
       <c r="A160" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>24</v>
@@ -9782,32 +9963,32 @@
         <v>444</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="161" spans="1:5">
       <c r="A161" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>25</v>
+        <v>446</v>
       </c>
     </row>
     <row ht="18.75" r="162" spans="1:5">
       <c r="A162" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>24</v>
@@ -9815,33 +9996,33 @@
       <c r="D162" t="s">
         <v>448</v>
       </c>
-      <c r="E162" s="18" t="s">
-        <v>139</v>
+      <c r="E162" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="163" spans="1:5">
       <c r="A163" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>451</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>25</v>
+        <v>448</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row ht="18.75" r="164" spans="1:5">
       <c r="A164" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>24</v>
@@ -9850,32 +10031,32 @@
         <v>451</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>453</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="165" spans="1:5">
       <c r="A165" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>25</v>
+        <v>453</v>
       </c>
     </row>
     <row ht="18.75" r="166" spans="1:5">
       <c r="A166" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>24</v>
@@ -9883,33 +10064,33 @@
       <c r="D166" t="s">
         <v>455</v>
       </c>
-      <c r="E166" s="17" t="s">
-        <v>459</v>
+      <c r="E166" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="167" spans="1:5">
       <c r="A167" s="11" t="s">
-        <v>344</v>
+        <v>456</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D167" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="E167" s="20" t="s">
-        <v>25</v>
+      <c r="D167" t="s">
+        <v>455</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>459</v>
       </c>
     </row>
     <row ht="18.75" r="168" spans="1:5">
       <c r="A168" s="11" t="s">
-        <v>583</v>
+        <v>344</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>24</v>
@@ -9923,16 +10104,16 @@
     </row>
     <row ht="18.75" r="169" spans="1:5">
       <c r="A169" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>25</v>
@@ -9940,95 +10121,95 @@
     </row>
     <row ht="18.75" r="170" spans="1:5">
       <c r="A170" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="171" spans="1:5">
+      <c r="A171" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="B170" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="B171" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s">
         <v>586</v>
       </c>
-      <c r="E170" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="171" spans="1:5">
-      <c r="A171" s="19" t="s">
+      <c r="E171" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="172" spans="1:5">
+      <c r="A172" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="B172" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" t="s">
         <v>458</v>
       </c>
-      <c r="E171" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.5" r="172" spans="1:5">
-      <c r="A172" s="11" t="s">
+      <c r="E172" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="173" spans="1:5">
+      <c r="A173" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="B172" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="B173" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" t="s">
         <v>507</v>
       </c>
-      <c r="E172" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20.25" r="173" spans="1:5">
-      <c r="A173" s="11" t="s">
+      <c r="E173" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.25" r="174" spans="1:5">
+      <c r="A174" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B174" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C173" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D173" s="11" t="s">
+      <c r="C174" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E174" s="21" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row ht="18.75" r="174" spans="1:5">
-      <c r="A174" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" t="s">
-        <v>508</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="175" spans="1:5">
       <c r="A175" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>24</v>
@@ -10037,32 +10218,32 @@
         <v>508</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="176" spans="1:5">
       <c r="A176" s="11" t="s">
-        <v>303</v>
+        <v>481</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
     </row>
     <row ht="18.75" r="177" spans="1:5">
       <c r="A177" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>24</v>
@@ -10071,32 +10252,32 @@
         <v>509</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="178" spans="1:5">
       <c r="A178" s="11" t="s">
-        <v>482</v>
+        <v>305</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
     </row>
     <row ht="18.75" r="179" spans="1:5">
       <c r="A179" s="11" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>24</v>
@@ -10104,33 +10285,33 @@
       <c r="D179" t="s">
         <v>483</v>
       </c>
-      <c r="E179" s="18" t="s">
-        <v>484</v>
+      <c r="E179" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="180" spans="1:5">
       <c r="A180" s="11" t="s">
-        <v>485</v>
+        <v>240</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D180" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>25</v>
+      <c r="D180" t="s">
+        <v>483</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row ht="18.75" r="181" spans="1:5">
       <c r="A181" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>24</v>
@@ -10138,33 +10319,33 @@
       <c r="D181" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="E181" s="18" t="s">
-        <v>488</v>
+      <c r="E181" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="182" spans="1:5">
       <c r="A182" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D182" t="s">
-        <v>490</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>25</v>
+      <c r="D182" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>488</v>
       </c>
     </row>
     <row ht="18.75" r="183" spans="1:5">
       <c r="A183" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>24</v>
@@ -10173,32 +10354,32 @@
         <v>490</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>492</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="184" spans="1:5">
       <c r="A184" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>25</v>
+        <v>492</v>
       </c>
     </row>
     <row ht="18.75" r="185" spans="1:5">
       <c r="A185" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>24</v>
@@ -10207,66 +10388,66 @@
         <v>494</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>496</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="186" spans="1:5">
       <c r="A186" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>25</v>
+        <v>496</v>
       </c>
     </row>
     <row ht="18.75" r="187" spans="1:5">
       <c r="A187" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" t="s">
         <v>498</v>
       </c>
-      <c r="E187" s="18" t="s">
-        <v>500</v>
+      <c r="E187" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="188" spans="1:5">
       <c r="A188" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>25</v>
+        <v>498</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>500</v>
       </c>
     </row>
     <row ht="18.75" r="189" spans="1:5">
       <c r="A189" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>24</v>
@@ -10274,33 +10455,33 @@
       <c r="D189" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="E189" s="18" t="s">
-        <v>504</v>
+      <c r="E189" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="190" spans="1:5">
       <c r="A190" s="11" t="s">
-        <v>344</v>
+        <v>503</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>25</v>
+        <v>502</v>
+      </c>
+      <c r="E190" s="18" t="s">
+        <v>504</v>
       </c>
     </row>
     <row ht="18.75" r="191" spans="1:5">
       <c r="A191" s="11" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>24</v>
@@ -10314,16 +10495,16 @@
     </row>
     <row ht="18.75" r="192" spans="1:5">
       <c r="A192" s="11" t="s">
-        <v>584</v>
+        <v>222</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="E192" s="16" t="s">
         <v>25</v>
@@ -10331,10 +10512,10 @@
     </row>
     <row ht="18.75" r="193" spans="1:5">
       <c r="A193" s="11" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>24</v>
@@ -10348,27 +10529,27 @@
     </row>
     <row ht="18.75" r="194" spans="1:5">
       <c r="A194" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="195" spans="1:5">
+      <c r="A195" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B194" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="195" spans="1:5">
-      <c r="A195" s="19" t="s">
-        <v>505</v>
-      </c>
       <c r="B195" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>24</v>
@@ -10381,17 +10562,17 @@
       </c>
     </row>
     <row ht="18.75" r="196" spans="1:5">
-      <c r="A196" s="11" t="s">
-        <v>510</v>
+      <c r="A196" s="19" t="s">
+        <v>505</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D196" t="s">
-        <v>511</v>
+      <c r="D196" s="11" t="s">
+        <v>506</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>25</v>
@@ -10399,10 +10580,10 @@
     </row>
     <row ht="18.75" r="197" spans="1:5">
       <c r="A197" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>24</v>
@@ -10411,66 +10592,66 @@
         <v>511</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>513</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="198" spans="1:5">
       <c r="A198" s="11" t="s">
-        <v>96</v>
+        <v>512</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D198" s="11" t="s">
-        <v>514</v>
+      <c r="D198" t="s">
+        <v>511</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>25</v>
+        <v>513</v>
       </c>
     </row>
     <row ht="18.75" r="199" spans="1:5">
       <c r="A199" s="11" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="E199" s="22" t="s">
-        <v>515</v>
+      <c r="E199" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="200" spans="1:5">
       <c r="A200" s="11" t="s">
-        <v>516</v>
+        <v>44</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>517</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>25</v>
+        <v>514</v>
+      </c>
+      <c r="E200" s="22" t="s">
+        <v>515</v>
       </c>
     </row>
     <row ht="18.75" r="201" spans="1:5">
       <c r="A201" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>24</v>
@@ -10479,32 +10660,32 @@
         <v>517</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="202" spans="1:5">
       <c r="A202" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
     </row>
     <row ht="18.75" r="203" spans="1:5">
       <c r="A203" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>24</v>
@@ -10512,33 +10693,33 @@
       <c r="D203" t="s">
         <v>520</v>
       </c>
-      <c r="E203" s="18" t="s">
-        <v>522</v>
+      <c r="E203" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="204" spans="1:5">
       <c r="A204" s="11" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>523</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>25</v>
+        <v>520</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>522</v>
       </c>
     </row>
     <row ht="18.75" r="205" spans="1:5">
       <c r="A205" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>24</v>
@@ -10546,33 +10727,33 @@
       <c r="D205" t="s">
         <v>523</v>
       </c>
-      <c r="E205" s="18" t="s">
-        <v>524</v>
+      <c r="E205" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="206" spans="1:5">
       <c r="A206" s="11" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>526</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>25</v>
+        <v>523</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>524</v>
       </c>
     </row>
     <row ht="18.75" r="207" spans="1:5">
       <c r="A207" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>24</v>
@@ -10581,32 +10762,32 @@
         <v>526</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>528</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="208" spans="1:5">
       <c r="A208" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>25</v>
+        <v>528</v>
       </c>
     </row>
     <row ht="18.75" r="209" spans="1:5">
       <c r="A209" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>24</v>
@@ -10615,32 +10796,32 @@
         <v>530</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>532</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="210" spans="1:5">
       <c r="A210" s="11" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
     </row>
     <row ht="18.75" r="211" spans="1:5">
       <c r="A211" s="11" t="s">
-        <v>534</v>
+        <v>473</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>24</v>
@@ -10648,33 +10829,33 @@
       <c r="D211" t="s">
         <v>533</v>
       </c>
-      <c r="E211" s="18" t="s">
-        <v>535</v>
+      <c r="E211" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="212" spans="1:5">
       <c r="A212" s="11" t="s">
-        <v>434</v>
+        <v>534</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>536</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>25</v>
+        <v>533</v>
+      </c>
+      <c r="E212" s="18" t="s">
+        <v>535</v>
       </c>
     </row>
     <row ht="18.75" r="213" spans="1:5">
       <c r="A213" s="11" t="s">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>24</v>
@@ -10682,33 +10863,33 @@
       <c r="D213" t="s">
         <v>536</v>
       </c>
-      <c r="E213" s="22" t="s">
-        <v>537</v>
+      <c r="E213" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="214" spans="1:5">
       <c r="A214" s="11" t="s">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>601</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>25</v>
+        <v>536</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>537</v>
       </c>
     </row>
     <row ht="18.75" r="215" spans="1:5">
       <c r="A215" s="11" t="s">
-        <v>597</v>
+        <v>344</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>24</v>
@@ -10722,16 +10903,16 @@
     </row>
     <row ht="18.75" r="216" spans="1:5">
       <c r="A216" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D216" s="11" t="s">
-        <v>586</v>
+      <c r="D216" t="s">
+        <v>601</v>
       </c>
       <c r="E216" s="16" t="s">
         <v>25</v>
@@ -10739,10 +10920,10 @@
     </row>
     <row ht="18.75" r="217" spans="1:5">
       <c r="A217" s="11" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>24</v>
@@ -10755,34 +10936,34 @@
       </c>
     </row>
     <row ht="18.75" r="218" spans="1:5">
-      <c r="A218" s="19" t="s">
+      <c r="A218" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="219" spans="1:5">
+      <c r="A219" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="B218" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="B219" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" t="s">
         <v>539</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="219" spans="1:5">
-      <c r="A219" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B219" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>542</v>
       </c>
       <c r="E219" s="16" t="s">
         <v>25</v>
@@ -10790,10 +10971,10 @@
     </row>
     <row ht="18.75" r="220" spans="1:5">
       <c r="A220" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>24</v>
@@ -10802,32 +10983,32 @@
         <v>542</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>544</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="221" spans="1:5">
       <c r="A221" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D221" t="s">
-        <v>546</v>
+      <c r="D221" s="11" t="s">
+        <v>542</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>25</v>
+        <v>544</v>
       </c>
     </row>
     <row ht="18.75" r="222" spans="1:5">
       <c r="A222" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>24</v>
@@ -10836,32 +11017,32 @@
         <v>546</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>548</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="223" spans="1:5">
       <c r="A223" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>25</v>
+        <v>548</v>
       </c>
     </row>
     <row ht="18.75" r="224" spans="1:5">
       <c r="A224" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>24</v>
@@ -10870,32 +11051,32 @@
         <v>550</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>552</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="225" spans="1:5">
       <c r="A225" s="11" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D225" s="11" t="s">
-        <v>553</v>
+      <c r="D225" t="s">
+        <v>550</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>25</v>
+        <v>552</v>
       </c>
     </row>
     <row ht="18.75" r="226" spans="1:5">
       <c r="A226" s="11" t="s">
-        <v>161</v>
+        <v>519</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>24</v>
@@ -10903,33 +11084,33 @@
       <c r="D226" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="E226" s="18" t="s">
-        <v>554</v>
+      <c r="E226" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="227" spans="1:5">
       <c r="A227" s="11" t="s">
-        <v>485</v>
+        <v>161</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>25</v>
+        <v>553</v>
+      </c>
+      <c r="E227" s="18" t="s">
+        <v>554</v>
       </c>
     </row>
     <row ht="18.75" r="228" spans="1:5">
       <c r="A228" s="11" t="s">
-        <v>556</v>
+        <v>485</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>24</v>
@@ -10937,67 +11118,67 @@
       <c r="D228" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="E228" s="18" t="s">
-        <v>613</v>
+      <c r="E228" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="229" spans="1:5">
       <c r="A229" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="E229" s="16" t="s">
-        <v>25</v>
+        <v>555</v>
+      </c>
+      <c r="E229" s="18" t="s">
+        <v>613</v>
       </c>
     </row>
     <row ht="18.75" r="230" spans="1:5">
       <c r="A230" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="E230" s="18" t="s">
-        <v>560</v>
+      <c r="E230" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="231" spans="1:5">
       <c r="A231" s="11" t="s">
-        <v>604</v>
+        <v>559</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C231" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D231" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="E231" s="16" t="s">
-        <v>25</v>
+      <c r="D231" t="s">
+        <v>558</v>
+      </c>
+      <c r="E231" s="18" t="s">
+        <v>560</v>
       </c>
     </row>
     <row ht="18.75" r="232" spans="1:5">
       <c r="A232" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>24</v>
@@ -11011,16 +11192,16 @@
     </row>
     <row ht="18.75" r="233" spans="1:5">
       <c r="A233" s="11" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="E233" s="16" t="s">
         <v>25</v>
@@ -11028,10 +11209,10 @@
     </row>
     <row ht="18.75" r="234" spans="1:5">
       <c r="A234" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>24</v>
@@ -11045,16 +11226,16 @@
     </row>
     <row ht="18.75" r="235" spans="1:5">
       <c r="A235" s="11" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D235" t="s">
-        <v>561</v>
+      <c r="D235" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="E235" s="16" t="s">
         <v>25</v>
@@ -11062,10 +11243,10 @@
     </row>
     <row ht="18.75" r="236" spans="1:5">
       <c r="A236" s="11" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>24</v>
@@ -11079,16 +11260,16 @@
     </row>
     <row ht="18.75" r="237" spans="1:5">
       <c r="A237" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E237" s="16" t="s">
         <v>25</v>
@@ -11096,112 +11277,112 @@
     </row>
     <row ht="18.75" r="238" spans="1:5">
       <c r="A238" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D238" s="11" t="s">
+      <c r="D238" t="s">
         <v>564</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>566</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="239" spans="1:5">
       <c r="A239" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D239" t="s">
-        <v>568</v>
+      <c r="D239" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>25</v>
+        <v>566</v>
       </c>
     </row>
     <row ht="18.75" r="240" spans="1:5">
       <c r="A240" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D240" s="11" t="s">
+      <c r="D240" t="s">
         <v>568</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>570</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="241" spans="1:5">
       <c r="A241" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>25</v>
+        <v>570</v>
       </c>
     </row>
     <row ht="18.75" r="242" spans="1:5">
       <c r="A242" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="11" t="s">
         <v>572</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>574</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="243" spans="1:5">
       <c r="A243" s="11" t="s">
-        <v>157</v>
+        <v>573</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C243" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>25</v>
+        <v>574</v>
       </c>
     </row>
     <row ht="18.75" r="244" spans="1:5">
       <c r="A244" s="11" t="s">
-        <v>576</v>
+        <v>157</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>24</v>
@@ -11210,32 +11391,32 @@
         <v>575</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>577</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="245" spans="1:5">
       <c r="A245" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>25</v>
+        <v>577</v>
       </c>
     </row>
     <row ht="18.75" r="246" spans="1:5">
       <c r="A246" s="11" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>24</v>
@@ -11244,71 +11425,71 @@
         <v>579</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="247" spans="1:5">
       <c r="A247" s="11" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D247" s="11" t="s">
-        <v>581</v>
+      <c r="D247" t="s">
+        <v>579</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
     </row>
     <row ht="18.75" r="248" spans="1:5">
       <c r="A248" s="11" t="s">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="E248" s="18" t="s">
-        <v>582</v>
+      <c r="E248" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row ht="18.75" r="249" spans="1:5">
       <c r="A249" s="11" t="s">
-        <v>344</v>
+        <v>240</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D249" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>25</v>
+      <c r="D249" t="s">
+        <v>581</v>
+      </c>
+      <c r="E249" s="18" t="s">
+        <v>582</v>
       </c>
     </row>
     <row ht="18.75" r="250" spans="1:5">
       <c r="A250" s="11" t="s">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="11" t="s">
         <v>607</v>
       </c>
       <c r="E250" s="16" t="s">
@@ -11317,16 +11498,16 @@
     </row>
     <row ht="18.75" r="251" spans="1:5">
       <c r="A251" s="11" t="s">
-        <v>608</v>
+        <v>207</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D251" s="11" t="s">
-        <v>586</v>
+      <c r="D251" t="s">
+        <v>607</v>
       </c>
       <c r="E251" s="16" t="s">
         <v>25</v>
@@ -11334,10 +11515,10 @@
     </row>
     <row ht="18.75" r="252" spans="1:5">
       <c r="A252" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>24</v>
@@ -11346,6 +11527,23 @@
         <v>586</v>
       </c>
       <c r="E252" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="18.75" r="253" spans="1:5">
+      <c r="A253" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E253" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11353,10 +11551,10 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E5"/>
     <hyperlink r:id="rId2" ref="E29"/>
-    <hyperlink r:id="rId3" ref="E125"/>
-    <hyperlink r:id="rId4" ref="E149"/>
-    <hyperlink r:id="rId5" ref="E199"/>
-    <hyperlink r:id="rId6" ref="E213"/>
+    <hyperlink r:id="rId3" ref="E126"/>
+    <hyperlink r:id="rId4" ref="E150"/>
+    <hyperlink r:id="rId5" ref="E200"/>
+    <hyperlink r:id="rId6" ref="E214"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
